--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,14 +28,6 @@
       <name val="Calibri"/>
       <b val="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -61,11 +53,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,52 +400,45 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Asset</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Price (USD)</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Balance (USD)</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -463,79 +447,24 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34291.46</v>
+        <v>34365.63</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>68582.92</v>
+        <v>17182815</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>04/07/21</t>
+          <t>06/07/21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>05:53:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ETH</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2286.49</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34297.35</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>04/07/21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>03:39:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BUNNY</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4e-11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2e-09</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>04/07/21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>03:39:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="M25" s="2" t="n"/>
+          <t>01:05:12</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cryptofolio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name=" Cryptofolio " sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -466,6 +466,32 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2095.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20956</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09/07/21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>05:29:36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34365.63</v>
+        <v>30727.97</v>
       </c>
       <c r="C2" t="n">
         <v>500</v>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2095.6</v>
+        <v>1820.37</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
@@ -489,6 +489,32 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>05:29:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>283.88</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2558.7</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>19/07/21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12:58:49</t>
         </is>
       </c>
     </row>
